--- a/testing_results/results_tai50x15.xlsx
+++ b/testing_results/results_tai50x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1051405241729746</v>
+        <v>0.1054292016918335</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1118245722165116</v>
+        <v>0.1044378141678353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1084412664341531</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1075725299259969</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.105782359622318</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1133855135922931</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1076942321120688</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1140789808845531</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1072803297312203</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1163965713251801</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1115659722300763</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1188434690910047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1044378141678353</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.09599209284855278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08552385430532439</v>
+        <v>0.08433600218878741</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08791715985751612</v>
+        <v>0.08465963227592441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0910278266189684</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08575334428867865</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08548551514950185</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.09197815117818389</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.08506796107205714</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.09661750053527374</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.08422278937361866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.097726170438739</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.09229855805163398</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1033559298499277</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.08465963227592441</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.08798975518564336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06639802412611176</v>
+        <v>0.06490622003256825</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06694353708148189</v>
+        <v>0.06355086187455908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06985037658123577</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06768687984280795</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06489759687657765</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.07001241639775484</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.06394640637666059</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.08027514792449919</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.06709945524116641</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08264275011274851</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07622864065063649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.08104554999223609</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.06355086187455908</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.08912234089500656</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.04146947347835792</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03602326821652467</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09620313014492421</v>
       </c>
     </row>
   </sheetData>
